--- a/FA880625RB003_AirForce_ComplianceMatrix.xlsx
+++ b/FA880625RB003_AirForce_ComplianceMatrix.xlsx
@@ -547,7 +547,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Generated: 2025-12-05 17:36</t>
+          <t>Generated: 2025-12-13 13:33</t>
         </is>
       </c>
     </row>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="C80" s="12" t="inlineStr">
         <is>
-          <t>. If the Contractor acquires by subcontract, any item(s) for which item unique         Subcontracts  
+          <t>. If the Contractor acquires by subcontract, any item(s) for which item unique         Subcontracts   
 identification is required in accordance with paragraph (c)(1) of this clause, the Contractor shall include 
 this clause, including this paragraph (g), in the applicable subcontract(s), including subcontracts for 
 commercial products or commercial services.
@@ -13913,8 +13913,8 @@
 simplified acquisition threshold defined in FAR part 2.
 (End of provision)
 252.215-7010 ALT I Requirements for Certified Cost or Pricing Data and Data Other 
-Than Certified Cost or Pricing Data. (Alternate I)2024-08
-. As prescribed in 215.408(5)(i) and (5)(i)(B), use the following provision, which includes Alternate I  
+Than Certified Cost or Pricing Data. (Alternate I) 2024-08
+. As prescribed in 215.408(5)(i) and (5)(i)(B), use the following provision, which includes Alternate I   
 different paragraphs (c)(1) and (d)(3) than the basic clause.
 REQUIREMENTS FOR CERTIFIED COST OR PRICING DATA AND DATA OTHER THAN 
 CERTIFIED COST OR PRICING DATA-ALTERNATE I (AUG 2024)</t>
@@ -14143,10 +14143,10 @@
 or nongovernmental entities;
 ( ) A comparison between the physical characteristics and functionality of the                                     2   
 comparable commercial product and the subsystem, component, or spare part, including-
-( ) For products under paragraph (3)(i) of the "commercial product"                                           i  
+( ) For products under paragraph (3)(i) of the "commercial product"                                           i   
 definition at FAR 2.101, a description of the modification and documentation to support that the 
 modification is customarily available in the marketplace; or
-( ) For products under paragraph (3)(ii) of the "commercial product"                                           ii  
+( ) For products under paragraph (3)(ii) of the "commercial product"                                           ii   
 definition at FAR 2.101, a detailed description of the modification and detailed technical data to 
 demonstrate that the modification is minor (e.g., information on production processes and material 
 differences); and
@@ -14154,9 +14154,9 @@
 if one is assigned, and the NSN for the subsystem, component, or spare part; or
 ( ) If the Offeror does not sell a comparable commercial product to the general                                     4   
 public or nongovernmental entities for purposes other than government purposes, the Offeror shall-
-( ) Notify the Contracting Officer in writing that it does not sell such a                                           i  
+( ) Notify the Contracting Officer in writing that it does not sell such a                                           i   
 comparable product; and
-( ) Provide the Contracting Officer with a comparison of the physical                                           ii  
+( ) Provide the Contracting Officer with a comparison of the physical                                           ii   
 characteristics and functionality of the most comparable commercial product in the commercial market.
 (C) For items priced based on a catalog-                              
 ( ) A copy of or identification of the Offeror's current catalog showing the                                     1   
@@ -15737,7 +15737,7 @@
 is,
 is not a small business joint venture that complies with the requirements of 13 CFR 121.103(h) and 13 
 CFR 125.8(a) and (b). [ The offeror shall enter the name and unique entity identifier of each party to the 
- .]joint venture:____________</t>
+ .]joint venture: ____________</t>
         </is>
       </c>
       <c r="D124" s="11" t="inlineStr">
@@ -15778,7 +15778,7 @@
 is not an SDVOSB joint venture eligible under the SDVOSB Program that complies with the 
 requirements of 13 CFR 128.402. [Complete only if the offeror represented itself as an SDVOSB concern 
 ] [in paragraph (c)(3) of this provision. The offeror shall enter the name and unique entity identifier of 
- .]each party to the joint venture:____________</t>
+ .]each party to the joint venture: ____________</t>
         </is>
       </c>
       <c r="D125" s="11" t="inlineStr">
@@ -15818,7 +15818,7 @@
           <t>The offeror represents that itWOSB joint venture eligible under the WOSB Program.
 is,
 is not a joint venture that complies with the requirements of 13 CFR 127.506(a) through (c). [ The 
- offeror shall enter the name and unique entity identifier of each party to the joint venture:____________
+ offeror shall enter the name and unique entity identifier of each party to the joint venture: ____________
 .]</t>
         </is>
       </c>
@@ -15860,7 +15860,7 @@
 represents that it
  is,
 is not a joint venture that complies with the requirements of 13 CFR 127.506(a) through (c). [The 
- offeror shall enter the name and unique entity identifier of each party to the joint venture:____________
+ offeror shall enter the name and unique entity identifier of each party to the joint venture: ____________
 .]
 Note to paragraphs (c)(9) and (10): Complete paragraphs (c)(9) and (10) only if this solicitation is 
 expected to exceed the simplified acquisition threshold.</t>
@@ -15944,7 +15944,7 @@
           <t>It
 is,
 is not a HUBZone joint venture that complies with the requirements of 13 CFR 126.616(a) through 
-(c). [  The offeror shall enter the name and unique entity identifier of each party to the joint venture:____
+(c). [  The offeror shall enter the name and unique entity identifier of each party to the joint venture: ____
 .] Each HUBZone small business concern participating in the HUBZone joint venture shall provide 
 representation of its HUBZone status.
  Representations required to implement provisions of Executive Order11246-(d)</t>
@@ -20749,7 +20749,7 @@
       </c>
       <c r="C241" s="12" t="inlineStr">
         <is>
-          <t>When work under this contract requires unescorted entry to controlled or restricted areas, the contractor shall comply with citing the &lt;&lt;2&gt;&gt; 
+          <t>When work under this contract requires unescorted entry to controlled or restricted areas, the contractor shall comply with  citing the &lt;&lt;2&gt;&gt; 
 appropriate paragraphs as applicable.</t>
         </is>
       </c>
